--- a/3Tier-Resources.xlsx
+++ b/3Tier-Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranceaaron/Desktop/aws training/Solutions-Architect-Professional/system designs/3Tier/3TierAWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F73AC2-A363-F74B-9F69-CF1ECFEBB4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97944EC6-CCC6-8547-B3E7-8B6EE932F59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="7160" windowWidth="23140" windowHeight="24600" xr2:uid="{4E2342DA-D89D-EA44-9631-F34B64155AD0}"/>
+    <workbookView xWindow="35060" yWindow="5000" windowWidth="23140" windowHeight="24600" xr2:uid="{4E2342DA-D89D-EA44-9631-F34B64155AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Resources</t>
   </si>
@@ -180,6 +180,75 @@
   </si>
   <si>
     <t>EC2SubnetNetworkAclAssociation00aclassoc05a65c381035ccab400714R1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Webserver-3-Tier</t>
+  </si>
+  <si>
+    <t>IGW</t>
+  </si>
+  <si>
+    <t>Key Pair</t>
+  </si>
+  <si>
+    <t>Network ACL</t>
+  </si>
+  <si>
+    <t>Network Interface</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>pvt 1a  rt</t>
+  </si>
+  <si>
+    <t>pvt 1b rt</t>
+  </si>
+  <si>
+    <t>RDS-pvt</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>main route table</t>
+  </si>
+  <si>
+    <t>RDS Secure3Tier</t>
+  </si>
+  <si>
+    <t>RDS rds-ec2-3</t>
+  </si>
+  <si>
+    <t>ec2-rds-3</t>
+  </si>
+  <si>
+    <t>Security-group-A</t>
+  </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>pvt-1b</t>
+  </si>
+  <si>
+    <t>pub-1b</t>
+  </si>
+  <si>
+    <t>pvt-1a</t>
+  </si>
+  <si>
+    <t>pd-8</t>
+  </si>
+  <si>
+    <t>pub-1a</t>
+  </si>
+  <si>
+    <t>RDS Instance</t>
   </si>
 </sst>
 </file>
@@ -566,291 +635,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C43AB41-23BD-3C45-8582-31CE1EC92976}">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97" style="1" customWidth="1"/>
+    <col min="1" max="1" width="89" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A58">
-    <sortCondition ref="A1:A58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A60">
+    <sortCondition ref="A1:A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>